--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Repusan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC05E16-EFB5-49FB-8BFB-EA0AD6BF0883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CD4630-C45C-4E7A-93B9-B169A0DE2110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3E3F6F67-4042-4D5A-980A-19F3D9173B51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="872">
   <si>
     <t>Código</t>
   </si>
@@ -2614,6 +2614,33 @@
   </si>
   <si>
     <t>Precio</t>
+  </si>
+  <si>
+    <t>Imagen</t>
+  </si>
+  <si>
+    <t>https://www.lineapractica.com.ar/assets/images/portfolio/percha_cuelgataza.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lineapractica.com.ar/assets/images/portfolio/percha_cuadrada_fc.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lineapractica.com.ar/assets/images/portfolio/percha_oval_fc.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lineapractica.com.ar/assets/images/portfolio/percha_oval_wh.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lineapractica.com.ar/assets/images/portfolio/percha_1piton.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lineapractica.com.ar/assets/images/portfolio/percha_2piton.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lineapractica.com.ar/assets/images/portfolio/percha_3piton.jpg</t>
+  </si>
+  <si>
+    <t>https://www.lineapractica.com.ar/assets/images/portfolio/tender.jpg</t>
   </si>
 </sst>
 </file>
@@ -2716,8 +2743,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2735,11 +2760,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <font>
         <color theme="0"/>
@@ -2749,13 +2780,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -3081,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF04AF6-F1D8-4A21-8CC6-C008B746B9C3}">
-  <dimension ref="A1:C453"/>
+  <dimension ref="A1:D453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
-      <selection activeCell="B450" sqref="B450"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,4976 +3116,5003 @@
     <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="D1" s="9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="D2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>3000</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="D3" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>4000</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="D4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4001</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="D5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5001</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6001</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>8001</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>9001</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>10001</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>11001</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>13001</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>16001</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>19001</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="D14" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>20001</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="D15" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>21001</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="D16" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>22001</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="D17" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>23001</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>24001</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>25002</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>26001</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>27001</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>28001</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>29001</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>30001</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>31001</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>33001</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>34001</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>36001</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>37001</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>38001</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>39001</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="3">
         <v>183</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>51000</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>51002</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>51003</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>51004</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>51005</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>51006</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>51007</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>51008</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>51009</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="3">
         <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="3">
         <v>336</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="3">
         <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C77" s="5">
+      <c r="C77" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C78" s="5">
+      <c r="C78" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C79" s="5">
+      <c r="C79" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="5">
+      <c r="C80" s="3">
         <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="5">
+      <c r="C81" s="3">
         <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="5">
+      <c r="C82" s="3">
         <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="5">
+      <c r="C83" s="3">
         <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="5">
+      <c r="C84" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C85" s="5">
+      <c r="C85" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C86" s="5">
+      <c r="C86" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C87" s="5">
+      <c r="C87" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="A88" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="5">
+      <c r="C88" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C89" s="5">
+      <c r="C89" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C90" s="5">
+      <c r="C90" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C91" s="5">
+      <c r="C91" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C92" s="5">
+      <c r="C92" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C93" s="5">
+      <c r="C93" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="A94" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="5">
+      <c r="C94" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C95" s="5">
+      <c r="C95" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C96" s="5">
+      <c r="C96" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C97" s="5">
+      <c r="C97" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="5">
+      <c r="C98" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C99" s="5">
+      <c r="C99" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C100" s="5">
+      <c r="C100" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C101" s="5">
+      <c r="C101" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C108" s="5">
+      <c r="C108" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C109" s="5">
+      <c r="C109" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
+      <c r="A110" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C110" s="5">
+      <c r="C110" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C111" s="5">
+      <c r="C111" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+      <c r="A113" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
+      <c r="A114" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="3" t="s">
+      <c r="A116" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="7" t="s">
+      <c r="B117" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B119" s="7" t="s">
+      <c r="B119" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
+      <c r="A121" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="A123" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
+      <c r="A124" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
+      <c r="A130" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B135" s="7" t="s">
+      <c r="B135" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138" s="3">
         <v>33</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B140" s="4" t="s">
+      <c r="B140" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B141" s="7" t="s">
+      <c r="B141" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B142" s="7" t="s">
+      <c r="B142" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
+      <c r="A143" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
+      <c r="A144" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
+      <c r="A146" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146" s="3">
         <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B147" s="7" t="s">
+      <c r="B147" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C147" s="5">
+      <c r="C147" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
+      <c r="A148" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C148" s="5">
+      <c r="C148" s="3">
         <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B149" s="7" t="s">
+      <c r="B149" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C149" s="5">
+      <c r="C149" s="3">
         <v>205</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
+      <c r="A150" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C150" s="5">
+      <c r="C150" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
+      <c r="A151" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C151" s="5">
+      <c r="C151" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C152" s="5">
+      <c r="C152" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C153" s="5">
+      <c r="C153" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C154" s="5">
+      <c r="C154" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C155" s="5">
+      <c r="C155" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C156" s="5">
+      <c r="C156" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C157" s="5">
+      <c r="C157" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C158" s="5">
+      <c r="C158" s="3">
         <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="A159" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C159" s="5">
+      <c r="C159" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C160" s="5">
+      <c r="C160" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B161" s="7" t="s">
+      <c r="B161" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C161" s="5">
+      <c r="C161" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B162" s="7" t="s">
+      <c r="B162" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C162" s="5">
+      <c r="C162" s="3">
         <v>154</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B163" s="7" t="s">
+      <c r="B163" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C163" s="5">
+      <c r="C163" s="3">
         <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B164" s="7" t="s">
+      <c r="B164" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C164" s="5">
+      <c r="C164" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B165" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C165" s="5">
+      <c r="C165" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C166" s="5">
+      <c r="C166" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B167" s="7" t="s">
+      <c r="B167" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C167" s="5">
+      <c r="C167" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
+      <c r="A169" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C169" s="5">
+      <c r="C169" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
+      <c r="A170" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C170" s="5">
+      <c r="C170" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
+      <c r="A171" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C171" s="5">
+      <c r="C171" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B172" s="7" t="s">
+      <c r="B172" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C172" s="5">
+      <c r="C172" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C173" s="5">
+      <c r="C173" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B174" s="7" t="s">
+      <c r="B174" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C174" s="5">
+      <c r="C174" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B175" s="7" t="s">
+      <c r="B175" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C175" s="5">
+      <c r="C175" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
+      <c r="A176" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C176" s="5">
+      <c r="C176" s="3">
         <v>71</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B177" s="7" t="s">
+      <c r="B177" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C177" s="5">
+      <c r="C177" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
+      <c r="A178" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C178" s="5">
+      <c r="C178" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
+      <c r="A179" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C180" s="5">
+      <c r="C180" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B181" s="7" t="s">
+      <c r="B181" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C181" s="5">
+      <c r="C181" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B182" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C182" s="5">
+      <c r="C182" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
+      <c r="A183" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B183" s="4" t="s">
+      <c r="B183" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C183" s="5">
+      <c r="C183" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
+      <c r="A184" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B184" s="7" t="s">
+      <c r="B184" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C184" s="5">
+      <c r="C184" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B185" s="4" t="s">
+      <c r="B185" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C185" s="5">
+      <c r="C185" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
+      <c r="A186" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B186" s="4" t="s">
+      <c r="B186" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C186" s="5">
+      <c r="C186" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B187" s="7" t="s">
+      <c r="B187" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C187" s="5">
+      <c r="C187" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="B188" s="7" t="s">
+      <c r="B188" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C188" s="5">
+      <c r="C188" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C189" s="5">
+      <c r="C189" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B190" s="7" t="s">
+      <c r="B190" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C190" s="5">
+      <c r="C190" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B191" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C191" s="5">
+      <c r="C191" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C192" s="5">
+      <c r="C192" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="A193" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C193" s="5">
+      <c r="C193" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
+      <c r="A194" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C194" s="5">
+      <c r="C194" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B195" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C195" s="5">
+      <c r="C195" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B196" s="7" t="s">
+      <c r="B196" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C196" s="5">
+      <c r="C196" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B197" s="4" t="s">
+      <c r="B197" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C197" s="5">
+      <c r="C197" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="3" t="s">
+      <c r="A198" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B198" s="4" t="s">
+      <c r="B198" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C198" s="5">
+      <c r="C198" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B199" s="7" t="s">
+      <c r="B199" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C199" s="5">
+      <c r="C199" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B200" s="7" t="s">
+      <c r="B200" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C200" s="5">
+      <c r="C200" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="3" t="s">
+      <c r="A201" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B201" s="4" t="s">
+      <c r="B201" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C201" s="5">
+      <c r="C201" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B202" s="7" t="s">
+      <c r="B202" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C202" s="5">
+      <c r="C202" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="3" t="s">
+      <c r="A203" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C203" s="5">
+      <c r="C203" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="B204" s="7" t="s">
+      <c r="B204" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C204" s="5">
+      <c r="C204" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C205" s="5">
+      <c r="C205" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="3" t="s">
+      <c r="A206" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C206" s="5">
+      <c r="C206" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B207" s="7" t="s">
+      <c r="B207" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="C207" s="5">
+      <c r="C207" s="3">
         <v>140</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B208" s="7" t="s">
+      <c r="B208" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C208" s="5">
+      <c r="C208" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="3" t="s">
+      <c r="A209" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C209" s="5">
+      <c r="C209" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
+      <c r="A210" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B210" s="7" t="s">
+      <c r="B210" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C210" s="5">
+      <c r="C210" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="3" t="s">
+      <c r="A211" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B211" s="4" t="s">
+      <c r="B211" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C211" s="5">
+      <c r="C211" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B212" s="4" t="s">
+      <c r="B212" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C212" s="5">
+      <c r="C212" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B213" s="7" t="s">
+      <c r="B213" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="C213" s="5">
+      <c r="C213" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="3" t="s">
+      <c r="A214" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B214" s="4" t="s">
+      <c r="B214" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C214" s="5">
+      <c r="C214" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B215" s="7" t="s">
+      <c r="B215" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C215" s="5">
+      <c r="C215" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="3" t="s">
+      <c r="A216" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B216" s="4" t="s">
+      <c r="B216" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C216" s="5">
+      <c r="C216" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B217" s="7" t="s">
+      <c r="B217" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C217" s="5">
+      <c r="C217" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="B218" s="7" t="s">
+      <c r="B218" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C218" s="5">
+      <c r="C218" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="3" t="s">
+      <c r="A219" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B219" s="4" t="s">
+      <c r="B219" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C219" s="5">
+      <c r="C219" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B220" s="7" t="s">
+      <c r="B220" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C220" s="5">
+      <c r="C220" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" s="3" t="s">
+      <c r="A221" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B221" s="4" t="s">
+      <c r="B221" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C221" s="5">
+      <c r="C221" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="B222" s="7" t="s">
+      <c r="B222" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C222" s="5">
+      <c r="C222" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="3" t="s">
+      <c r="A223" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B223" s="4" t="s">
+      <c r="B223" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C223" s="5">
+      <c r="C223" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224" s="3" t="s">
+      <c r="A224" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B224" s="4" t="s">
+      <c r="B224" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C224" s="5">
+      <c r="C224" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B225" s="4" t="s">
+      <c r="B225" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C225" s="5">
+      <c r="C225" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B226" s="7" t="s">
+      <c r="B226" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C226" s="5">
+      <c r="C226" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C227" s="5">
+      <c r="C227" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
+      <c r="A228" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C228" s="5">
+      <c r="C228" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B229" s="7" t="s">
+      <c r="B229" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C229" s="5">
+      <c r="C229" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B230" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C230" s="5">
+      <c r="C230" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="3" t="s">
+      <c r="A231" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C231" s="5">
+      <c r="C231" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
+      <c r="A232" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C232" s="5">
+      <c r="C232" s="3">
         <v>58</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B233" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="C233" s="5">
+      <c r="C233" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="B234" s="7" t="s">
+      <c r="B234" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="C234" s="5">
+      <c r="C234" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C235" s="5">
+      <c r="C235" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="3" t="s">
+      <c r="A236" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C236" s="5">
+      <c r="C236" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="B237" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C237" s="5">
+      <c r="C237" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="3" t="s">
+      <c r="A238" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C238" s="5">
+      <c r="C238" s="3">
         <v>392</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
+      <c r="A239" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C239" s="5">
+      <c r="C239" s="3">
         <v>97</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="3" t="s">
+      <c r="A240" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C240" s="5">
+      <c r="C240" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="6" t="s">
+      <c r="A241" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B241" s="7" t="s">
+      <c r="B241" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C241" s="5">
+      <c r="C241" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="3" t="s">
+      <c r="A242" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C242" s="5">
+      <c r="C242" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="s">
+      <c r="A243" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B243" s="7" t="s">
+      <c r="B243" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="C243" s="5">
+      <c r="C243" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
+      <c r="A244" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B244" s="7" t="s">
+      <c r="B244" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C244" s="5">
+      <c r="C244" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="6" t="s">
+      <c r="A246" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="B246" s="7" t="s">
+      <c r="B246" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C246" s="5">
+      <c r="C246" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="6" t="s">
+      <c r="A247" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B247" s="7" t="s">
+      <c r="B247" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C247" s="5">
+      <c r="C247" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="3" t="s">
+      <c r="A248" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="C248" s="5">
+      <c r="C248" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="3" t="s">
+      <c r="A249" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C249" s="5">
+      <c r="C249" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
+      <c r="A250" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="C250" s="5">
+      <c r="C250" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251" s="3" t="s">
+      <c r="A251" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C251" s="5">
+      <c r="C251" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
+      <c r="A252" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="B252" s="7" t="s">
+      <c r="B252" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C252" s="5">
+      <c r="C252" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253" s="3" t="s">
+      <c r="A253" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C253" s="5">
+      <c r="C253" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
+      <c r="A254" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="B254" s="7" t="s">
+      <c r="B254" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="C254" s="5">
+      <c r="C254" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B255" s="7" t="s">
+      <c r="B255" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C255" s="5">
+      <c r="C255" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="3" t="s">
+      <c r="A256" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C256" s="5">
+      <c r="C256" s="3">
         <v>50</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C257" s="5">
+      <c r="C257" s="3">
         <v>1000</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
+      <c r="A258" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="B258" s="7" t="s">
+      <c r="B258" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C258" s="5">
+      <c r="C258" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
+      <c r="A259" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B259" s="7" t="s">
+      <c r="B259" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="C259" s="5">
+      <c r="C259" s="3">
         <v>500</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="s">
+      <c r="A260" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="B260" s="7" t="s">
+      <c r="B260" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="C260" s="5">
+      <c r="C260" s="3">
         <v>400</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="3" t="s">
+      <c r="A261" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="C261" s="5">
+      <c r="C261" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="3" t="s">
+      <c r="A262" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C262" s="5">
+      <c r="C262" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="6" t="s">
+      <c r="A263" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B263" s="7" t="s">
+      <c r="B263" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C263" s="5">
+      <c r="C263" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="6" t="s">
+      <c r="A264" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B264" s="7" t="s">
+      <c r="B264" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="C264" s="5">
+      <c r="C264" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C265" s="5">
+      <c r="C265" s="3">
         <v>600</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="3" t="s">
+      <c r="A266" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C266" s="5">
+      <c r="C266" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
+      <c r="A267" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="B267" s="7" t="s">
+      <c r="B267" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C267" s="5">
+      <c r="C267" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="3" t="s">
+      <c r="A268" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C268" s="5">
+      <c r="C268" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="6" t="s">
+      <c r="A269" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="B269" s="7" t="s">
+      <c r="B269" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C269" s="5">
+      <c r="C269" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="3" t="s">
+      <c r="A270" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C270" s="5">
+      <c r="C270" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="3" t="s">
+      <c r="A271" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C271" s="5">
+      <c r="C271" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="6" t="s">
+      <c r="A272" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="B272" s="7" t="s">
+      <c r="B272" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C272" s="5">
+      <c r="C272" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
+      <c r="A273" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C273" s="5">
+      <c r="C273" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="3" t="s">
+      <c r="A274" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B274" s="4" t="s">
+      <c r="B274" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C274" s="5">
+      <c r="C274" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="s">
+      <c r="A275" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B275" s="7" t="s">
+      <c r="B275" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C275" s="5">
+      <c r="C275" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276" s="3" t="s">
+      <c r="A276" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B276" s="4" t="s">
+      <c r="B276" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C276" s="5">
+      <c r="C276" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="6" t="s">
+      <c r="A277" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="B277" s="7" t="s">
+      <c r="B277" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C277" s="5">
+      <c r="C277" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="6" t="s">
+      <c r="A278" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="B278" s="7" t="s">
+      <c r="B278" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="C278" s="5">
+      <c r="C278" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="3" t="s">
+      <c r="A279" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B279" s="4" t="s">
+      <c r="B279" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C279" s="5">
+      <c r="C279" s="3">
         <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="6" t="s">
+      <c r="A280" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="B280" s="7" t="s">
+      <c r="B280" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C280" s="5">
+      <c r="C280" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="6" t="s">
+      <c r="A281" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="B281" s="7" t="s">
+      <c r="B281" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="C281" s="5">
+      <c r="C281" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C282" s="5">
+      <c r="C282" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="B283" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C283" s="5">
+      <c r="C283" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B284" s="4" t="s">
+      <c r="B284" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C284" s="5">
+      <c r="C284" s="3">
         <v>-6</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="C285" s="5">
+      <c r="C285" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="6" t="s">
+      <c r="A286" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="C286" s="5">
+      <c r="C286" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="6" t="s">
+      <c r="A287" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C287" s="5">
+      <c r="C287" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="6" t="s">
+      <c r="A288" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="C288" s="5">
+      <c r="C288" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="6" t="s">
+      <c r="A289" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="C289" s="5">
+      <c r="C289" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="s">
+      <c r="A290" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C290" s="5">
+      <c r="C290" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="3" t="s">
+      <c r="A291" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B291" s="4" t="s">
+      <c r="B291" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C291" s="5">
+      <c r="C291" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="3" t="s">
+      <c r="A292" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B292" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C292" s="5">
+      <c r="C292" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293" s="3" t="s">
+      <c r="A293" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B293" s="4" t="s">
+      <c r="B293" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C293" s="5">
+      <c r="C293" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="3" t="s">
+      <c r="A294" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B294" s="4" t="s">
+      <c r="B294" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C294" s="5">
+      <c r="C294" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="3" t="s">
+      <c r="A295" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B295" s="4" t="s">
+      <c r="B295" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C295" s="5">
+      <c r="C295" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="6" t="s">
+      <c r="A296" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B296" s="7" t="s">
+      <c r="B296" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C296" s="5">
+      <c r="C296" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="3" t="s">
+      <c r="A297" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B297" s="4" t="s">
+      <c r="B297" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C297" s="5">
+      <c r="C297" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="s">
+      <c r="A298" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B298" s="7" t="s">
+      <c r="B298" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="C298" s="5">
+      <c r="C298" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="6" t="s">
+      <c r="A299" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="B299" s="7" t="s">
+      <c r="B299" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C299" s="5">
+      <c r="C299" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="6" t="s">
+      <c r="A300" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="B300" s="7" t="s">
+      <c r="B300" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="C300" s="5">
+      <c r="C300" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="6" t="s">
+      <c r="A301" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="B301" s="7" t="s">
+      <c r="B301" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="C301" s="5">
+      <c r="C301" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="3" t="s">
+      <c r="A302" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B302" s="4" t="s">
+      <c r="B302" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C302" s="5">
+      <c r="C302" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="6" t="s">
+      <c r="A303" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="B303" s="7" t="s">
+      <c r="B303" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="C303" s="5">
+      <c r="C303" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="3" t="s">
+      <c r="A304" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B304" s="4" t="s">
+      <c r="B304" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="C304" s="5">
+      <c r="C304" s="3">
         <v>-2</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="3" t="s">
+      <c r="A305" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B305" s="4" t="s">
+      <c r="B305" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="C305" s="5">
+      <c r="C305" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="6" t="s">
+      <c r="A306" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="B306" s="7" t="s">
+      <c r="B306" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="C306" s="5">
+      <c r="C306" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="3" t="s">
+      <c r="A307" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B307" s="4" t="s">
+      <c r="B307" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="C307" s="5">
+      <c r="C307" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="6" t="s">
+      <c r="A308" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="B308" s="7" t="s">
+      <c r="B308" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="C308" s="5">
+      <c r="C308" s="3">
         <v>-2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A309" s="3" t="s">
+      <c r="A309" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B309" s="4" t="s">
+      <c r="B309" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C309" s="5">
+      <c r="C309" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="6" t="s">
+      <c r="A310" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="B310" s="7" t="s">
+      <c r="B310" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="C310" s="5">
+      <c r="C310" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="3" t="s">
+      <c r="A311" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B311" s="4" t="s">
+      <c r="B311" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="C311" s="5">
+      <c r="C311" s="3">
         <v>42</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A312" s="6" t="s">
+      <c r="A312" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="B312" s="7" t="s">
+      <c r="B312" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C312" s="5">
+      <c r="C312" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="3" t="s">
+      <c r="A313" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B313" s="4" t="s">
+      <c r="B313" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C313" s="5">
+      <c r="C313" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="6" t="s">
+      <c r="A314" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="B314" s="7" t="s">
+      <c r="B314" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="C314" s="5">
+      <c r="C314" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A315" s="6" t="s">
+      <c r="A315" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="B315" s="7" t="s">
+      <c r="B315" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="C315" s="5">
+      <c r="C315" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="6" t="s">
+      <c r="A316" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B316" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="C316" s="5">
+      <c r="C316" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="3" t="s">
+      <c r="A317" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B317" s="4" t="s">
+      <c r="B317" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="C317" s="5">
+      <c r="C317" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A318" s="3" t="s">
+      <c r="A318" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B318" s="4" t="s">
+      <c r="B318" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="C318" s="5">
+      <c r="C318" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="6" t="s">
+      <c r="A319" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="C319" s="5">
+      <c r="C319" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="3" t="s">
+      <c r="A320" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B320" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C320" s="5">
+      <c r="C320" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="6" t="s">
+      <c r="A321" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="C321" s="5">
+      <c r="C321" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="6" t="s">
+      <c r="A322" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B322" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="C322" s="5">
+      <c r="C322" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A323" s="3" t="s">
+      <c r="A323" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B323" s="4" t="s">
+      <c r="B323" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C323" s="5">
+      <c r="C323" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="6" t="s">
+      <c r="A324" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B324" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="C324" s="5">
+      <c r="C324" s="3">
         <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="3" t="s">
+      <c r="A325" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B325" s="4" t="s">
+      <c r="B325" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="C325" s="5">
+      <c r="C325" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="6" t="s">
+      <c r="A326" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B326" s="7" t="s">
+      <c r="B326" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="C326" s="5">
+      <c r="C326" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="3" t="s">
+      <c r="A327" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="B327" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C327" s="5">
+      <c r="C327" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A328" s="3" t="s">
+      <c r="A328" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="B328" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C328" s="5">
+      <c r="C328" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="3" t="s">
+      <c r="A329" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B329" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="C329" s="5">
+      <c r="C329" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="6" t="s">
+      <c r="A330" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B330" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="C330" s="5">
+      <c r="C330" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="3" t="s">
+      <c r="A331" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B331" s="4" t="s">
+      <c r="B331" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C331" s="5">
+      <c r="C331" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="B332" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="C332" s="5">
+      <c r="C332" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="6" t="s">
+      <c r="A333" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="B333" s="7" t="s">
+      <c r="B333" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="C333" s="5">
+      <c r="C333" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="6" t="s">
+      <c r="A334" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="B334" s="7" t="s">
+      <c r="B334" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="C334" s="5">
+      <c r="C334" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="3" t="s">
+      <c r="A335" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B335" s="4" t="s">
+      <c r="B335" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C335" s="5">
+      <c r="C335" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A336" s="3" t="s">
+      <c r="A336" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B336" s="4" t="s">
+      <c r="B336" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C336" s="5">
+      <c r="C336" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="6" t="s">
+      <c r="A337" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="B337" s="7" t="s">
+      <c r="B337" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="C337" s="5">
+      <c r="C337" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A338" s="6" t="s">
+      <c r="A338" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="B338" s="7" t="s">
+      <c r="B338" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="C338" s="5">
+      <c r="C338" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="3" t="s">
+      <c r="A339" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B339" s="4" t="s">
+      <c r="B339" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C339" s="5">
+      <c r="C339" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A340" s="6" t="s">
+      <c r="A340" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="B340" s="7" t="s">
+      <c r="B340" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="C340" s="5">
+      <c r="C340" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A341" s="3" t="s">
+      <c r="A341" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B341" s="4" t="s">
+      <c r="B341" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C341" s="5">
+      <c r="C341" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="3" t="s">
+      <c r="A342" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B342" s="4" t="s">
+      <c r="B342" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C342" s="5">
+      <c r="C342" s="3">
         <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="6" t="s">
+      <c r="A343" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="B343" s="7" t="s">
+      <c r="B343" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="C343" s="5">
+      <c r="C343" s="3">
         <v>175</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A344" s="3" t="s">
+      <c r="A344" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B344" s="4" t="s">
+      <c r="B344" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="C344" s="5">
+      <c r="C344" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="6" t="s">
+      <c r="A345" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="B345" s="7" t="s">
+      <c r="B345" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="C345" s="5">
+      <c r="C345" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="3" t="s">
+      <c r="A346" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B346" s="4" t="s">
+      <c r="B346" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C346" s="5">
+      <c r="C346" s="3">
         <v>54</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A347" s="3" t="s">
+      <c r="A347" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B347" s="4" t="s">
+      <c r="B347" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C347" s="5">
+      <c r="C347" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="3" t="s">
+      <c r="A348" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B348" s="4" t="s">
+      <c r="B348" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C348" s="5">
+      <c r="C348" s="3">
         <v>71</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="6" t="s">
+      <c r="A349" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="B349" s="7" t="s">
+      <c r="B349" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="C349" s="5">
+      <c r="C349" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A350" s="6" t="s">
+      <c r="A350" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="B350" s="7" t="s">
+      <c r="B350" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="C350" s="5">
+      <c r="C350" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A351" s="3" t="s">
+      <c r="A351" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B351" s="4" t="s">
+      <c r="B351" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="C351" s="5">
+      <c r="C351" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A352" s="3" t="s">
+      <c r="A352" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B352" s="4" t="s">
+      <c r="B352" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C352" s="5">
+      <c r="C352" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A353" s="3" t="s">
+      <c r="A353" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B353" s="4" t="s">
+      <c r="B353" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="C353" s="5">
+      <c r="C353" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A354" s="6" t="s">
+      <c r="A354" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="B354" s="7" t="s">
+      <c r="B354" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="C354" s="5">
+      <c r="C354" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A355" s="3" t="s">
+      <c r="A355" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B355" s="4" t="s">
+      <c r="B355" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="C355" s="5">
+      <c r="C355" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A356" s="6" t="s">
+      <c r="A356" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="B356" s="7" t="s">
+      <c r="B356" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="C356" s="5">
+      <c r="C356" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A357" s="6" t="s">
+      <c r="A357" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="B357" s="7" t="s">
+      <c r="B357" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="C357" s="5">
+      <c r="C357" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A358" s="6" t="s">
+      <c r="A358" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="B358" s="7" t="s">
+      <c r="B358" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="C358" s="5">
+      <c r="C358" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A359" s="3" t="s">
+      <c r="A359" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B359" s="4" t="s">
+      <c r="B359" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="C359" s="5">
+      <c r="C359" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A360" s="6" t="s">
+      <c r="A360" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="B360" s="7" t="s">
+      <c r="B360" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="C360" s="5">
+      <c r="C360" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A361" s="6" t="s">
+      <c r="A361" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="B361" s="7" t="s">
+      <c r="B361" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="C361" s="5">
+      <c r="C361" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A362" s="3" t="s">
+      <c r="A362" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B362" s="4" t="s">
+      <c r="B362" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C362" s="5">
+      <c r="C362" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A363" s="6" t="s">
+      <c r="A363" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="B363" s="7" t="s">
+      <c r="B363" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="C363" s="5">
+      <c r="C363" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A364" s="3" t="s">
+      <c r="A364" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B364" s="4" t="s">
+      <c r="B364" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C364" s="5">
+      <c r="C364" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A365" s="3" t="s">
+      <c r="A365" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B365" s="4" t="s">
+      <c r="B365" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="C365" s="5">
+      <c r="C365" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A366" s="3" t="s">
+      <c r="A366" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B366" s="4" t="s">
+      <c r="B366" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C366" s="5">
+      <c r="C366" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A367" s="6" t="s">
+      <c r="A367" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="B367" s="7" t="s">
+      <c r="B367" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="C367" s="5">
+      <c r="C367" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A368" s="3" t="s">
+      <c r="A368" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B368" s="4" t="s">
+      <c r="B368" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="C368" s="5">
+      <c r="C368" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369" s="6" t="s">
+      <c r="A369" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="B369" s="7" t="s">
+      <c r="B369" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="C369" s="5">
+      <c r="C369" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370" s="6" t="s">
+      <c r="A370" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="B370" s="7" t="s">
+      <c r="B370" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="C370" s="5">
+      <c r="C370" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="3" t="s">
+      <c r="A371" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B371" s="4" t="s">
+      <c r="B371" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="C371" s="5">
+      <c r="C371" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372" s="6" t="s">
+      <c r="A372" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="B372" s="7" t="s">
+      <c r="B372" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="C372" s="5">
+      <c r="C372" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373" s="3" t="s">
+      <c r="A373" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B373" s="4" t="s">
+      <c r="B373" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="C373" s="5">
+      <c r="C373" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374" s="6" t="s">
+      <c r="A374" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="B374" s="7" t="s">
+      <c r="B374" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="C374" s="5">
+      <c r="C374" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375" s="3" t="s">
+      <c r="A375" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B375" s="4" t="s">
+      <c r="B375" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="C375" s="5">
+      <c r="C375" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376" s="6" t="s">
+      <c r="A376" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="B376" s="7" t="s">
+      <c r="B376" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="C376" s="5">
+      <c r="C376" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377" s="3" t="s">
+      <c r="A377" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B377" s="4" t="s">
+      <c r="B377" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="C377" s="5">
+      <c r="C377" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378" s="6" t="s">
+      <c r="A378" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="B378" s="7" t="s">
+      <c r="B378" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="C378" s="5">
+      <c r="C378" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379" s="3" t="s">
+      <c r="A379" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B379" s="4" t="s">
+      <c r="B379" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="C379" s="5">
+      <c r="C379" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380" s="6" t="s">
+      <c r="A380" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="B380" s="7" t="s">
+      <c r="B380" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="C380" s="5">
+      <c r="C380" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381" s="3" t="s">
+      <c r="A381" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B381" s="4" t="s">
+      <c r="B381" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="C381" s="5">
+      <c r="C381" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382" s="6" t="s">
+      <c r="A382" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="B382" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="C382" s="5">
+      <c r="C382" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383" s="3" t="s">
+      <c r="A383" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B383" s="4" t="s">
+      <c r="B383" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="C383" s="5">
+      <c r="C383" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384" s="6" t="s">
+      <c r="A384" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B384" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="C384" s="5">
+      <c r="C384" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385" s="3" t="s">
+      <c r="A385" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B385" s="4" t="s">
+      <c r="B385" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="C385" s="5">
+      <c r="C385" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386" s="3" t="s">
+      <c r="A386" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B386" s="4" t="s">
+      <c r="B386" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="C386" s="5">
+      <c r="C386" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387" s="6" t="s">
+      <c r="A387" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="B387" s="7" t="s">
+      <c r="B387" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="C387" s="5">
+      <c r="C387" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388" s="6" t="s">
+      <c r="A388" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="B388" s="7" t="s">
+      <c r="B388" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="C388" s="5">
+      <c r="C388" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389" s="6" t="s">
+      <c r="A389" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="B389" s="7" t="s">
+      <c r="B389" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="C389" s="5">
+      <c r="C389" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390" s="6" t="s">
+      <c r="A390" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="B390" s="7" t="s">
+      <c r="B390" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="C390" s="5">
+      <c r="C390" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391" s="3" t="s">
+      <c r="A391" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B391" s="4" t="s">
+      <c r="B391" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="C391" s="5">
+      <c r="C391" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392" s="6" t="s">
+      <c r="A392" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="B392" s="7" t="s">
+      <c r="B392" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="C392" s="5">
+      <c r="C392" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393" s="6" t="s">
+      <c r="A393" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="B393" s="7" t="s">
+      <c r="B393" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="C393" s="5">
+      <c r="C393" s="3">
         <v>57</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394" s="3" t="s">
+      <c r="A394" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B394" s="4" t="s">
+      <c r="B394" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="C394" s="5">
+      <c r="C394" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395" s="3" t="s">
+      <c r="A395" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B395" s="4" t="s">
+      <c r="B395" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="C395" s="5">
+      <c r="C395" s="3">
         <v>226</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396" s="6" t="s">
+      <c r="A396" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="B396" s="7" t="s">
+      <c r="B396" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="C396" s="5">
+      <c r="C396" s="3">
         <v>194</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397" s="3" t="s">
+      <c r="A397" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B397" s="4" t="s">
+      <c r="B397" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="C397" s="5">
+      <c r="C397" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398" s="3" t="s">
+      <c r="A398" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B398" s="4" t="s">
+      <c r="B398" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="C398" s="5">
+      <c r="C398" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399" s="3" t="s">
+      <c r="A399" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B399" s="4" t="s">
+      <c r="B399" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C399" s="5">
+      <c r="C399" s="3">
         <v>4000</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400" s="6" t="s">
+      <c r="A400" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B400" s="7" t="s">
+      <c r="B400" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="C400" s="5">
+      <c r="C400" s="3">
         <v>2000</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401" s="3" t="s">
+      <c r="A401" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="B401" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="C401" s="5">
+      <c r="C401" s="3">
         <v>168</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402" s="6" t="s">
+      <c r="A402" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B402" s="7" t="s">
+      <c r="B402" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="C402" s="5">
+      <c r="C402" s="3">
         <v>168</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="6" t="s">
+      <c r="A403" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="B403" s="7" t="s">
+      <c r="B403" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="C403" s="5">
+      <c r="C403" s="3">
         <v>108</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="6" t="s">
+      <c r="A404" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B404" s="7" t="s">
+      <c r="B404" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="C404" s="5">
+      <c r="C404" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405" s="6" t="s">
+      <c r="A405" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="B405" s="7" t="s">
+      <c r="B405" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="C405" s="5">
+      <c r="C405" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406" s="6" t="s">
+      <c r="A406" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B406" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="C406" s="5">
+      <c r="C406" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407" s="3" t="s">
+      <c r="A407" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B407" s="4" t="s">
+      <c r="B407" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C407" s="5">
+      <c r="C407" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408" s="6" t="s">
+      <c r="A408" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="B408" s="7" t="s">
+      <c r="B408" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="C408" s="5">
+      <c r="C408" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409" s="6" t="s">
+      <c r="A409" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="B409" s="7" t="s">
+      <c r="B409" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="C409" s="5">
+      <c r="C409" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410" s="3" t="s">
+      <c r="A410" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B410" s="4" t="s">
+      <c r="B410" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C410" s="5">
+      <c r="C410" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411" s="6" t="s">
+      <c r="A411" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="B411" s="7" t="s">
+      <c r="B411" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="C411" s="5">
+      <c r="C411" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412" s="6" t="s">
+      <c r="A412" s="4" t="s">
         <v>782</v>
       </c>
-      <c r="B412" s="7" t="s">
+      <c r="B412" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="C412" s="5">
+      <c r="C412" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413" s="6" t="s">
+      <c r="A413" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="B413" s="7" t="s">
+      <c r="B413" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="C413" s="5">
+      <c r="C413" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414" s="3" t="s">
+      <c r="A414" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B414" s="4" t="s">
+      <c r="B414" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="C414" s="5">
+      <c r="C414" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415" s="3" t="s">
+      <c r="A415" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B415" s="4" t="s">
+      <c r="B415" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="C415" s="5">
+      <c r="C415" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416" s="3" t="s">
+      <c r="A416" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B416" s="4" t="s">
+      <c r="B416" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="C416" s="5">
+      <c r="C416" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417" s="6" t="s">
+      <c r="A417" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="B417" s="7" t="s">
+      <c r="B417" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="C417" s="5">
+      <c r="C417" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418" s="6" t="s">
+      <c r="A418" s="4" t="s">
         <v>794</v>
       </c>
-      <c r="B418" s="7" t="s">
+      <c r="B418" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="C418" s="5">
+      <c r="C418" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419" s="6" t="s">
+      <c r="A419" s="4" t="s">
         <v>796</v>
       </c>
-      <c r="B419" s="7" t="s">
+      <c r="B419" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="C419" s="5">
+      <c r="C419" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420" s="3" t="s">
+      <c r="A420" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B420" s="4" t="s">
+      <c r="B420" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="C420" s="5">
+      <c r="C420" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421" s="6" t="s">
+      <c r="A421" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="B421" s="7" t="s">
+      <c r="B421" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="C421" s="5">
+      <c r="C421" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422" s="3" t="s">
+      <c r="A422" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B422" s="4" t="s">
+      <c r="B422" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="C422" s="5">
+      <c r="C422" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423" s="6" t="s">
+      <c r="A423" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B423" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="C423" s="5">
+      <c r="C423" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424" s="6" t="s">
+      <c r="A424" s="4" t="s">
         <v>806</v>
       </c>
-      <c r="B424" s="7" t="s">
+      <c r="B424" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="C424" s="5">
+      <c r="C424" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425" s="3" t="s">
+      <c r="A425" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B425" s="4" t="s">
+      <c r="B425" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="C425" s="5">
+      <c r="C425" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426" s="3" t="s">
+      <c r="A426" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B426" s="4" t="s">
+      <c r="B426" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C426" s="5">
+      <c r="C426" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" s="6" t="s">
+      <c r="A427" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="B427" s="7" t="s">
+      <c r="B427" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="C427" s="5">
+      <c r="C427" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428" s="6" t="s">
+      <c r="A428" s="4" t="s">
         <v>814</v>
       </c>
-      <c r="B428" s="7" t="s">
+      <c r="B428" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="C428" s="5">
+      <c r="C428" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429" s="3" t="s">
+      <c r="A429" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B429" s="4" t="s">
+      <c r="B429" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="C429" s="5">
+      <c r="C429" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430" s="3" t="s">
+      <c r="A430" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B430" s="4" t="s">
+      <c r="B430" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="C430" s="5">
+      <c r="C430" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431" s="6" t="s">
+      <c r="A431" s="4" t="s">
         <v>820</v>
       </c>
-      <c r="B431" s="7" t="s">
+      <c r="B431" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="C431" s="5">
+      <c r="C431" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432" s="3" t="s">
+      <c r="A432" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B432" s="4" t="s">
+      <c r="B432" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C432" s="5">
+      <c r="C432" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433" s="6" t="s">
+      <c r="A433" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="B433" s="7" t="s">
+      <c r="B433" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="C433" s="5">
+      <c r="C433" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434" s="3" t="s">
+      <c r="A434" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B434" s="4" t="s">
+      <c r="B434" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C434" s="5">
+      <c r="C434" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435" s="3" t="s">
+      <c r="A435" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B435" s="4" t="s">
+      <c r="B435" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="C435" s="5">
+      <c r="C435" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436" s="6" t="s">
+      <c r="A436" s="4" t="s">
         <v>830</v>
       </c>
-      <c r="B436" s="7" t="s">
+      <c r="B436" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="C436" s="5">
+      <c r="C436" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437" s="6" t="s">
+      <c r="A437" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="B437" s="7" t="s">
+      <c r="B437" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="C437" s="5">
+      <c r="C437" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438" s="3" t="s">
+      <c r="A438" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B438" s="4" t="s">
+      <c r="B438" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="C438" s="5">
+      <c r="C438" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439" s="6" t="s">
+      <c r="A439" s="4" t="s">
         <v>836</v>
       </c>
-      <c r="B439" s="7" t="s">
+      <c r="B439" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="C439" s="5">
+      <c r="C439" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440" s="6" t="s">
+      <c r="A440" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="B440" s="7" t="s">
+      <c r="B440" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="C440" s="5">
+      <c r="C440" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441" s="6" t="s">
+      <c r="A441" s="4" t="s">
         <v>840</v>
       </c>
-      <c r="B441" s="7" t="s">
+      <c r="B441" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="C441" s="5">
+      <c r="C441" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442" s="3" t="s">
+      <c r="A442" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B442" s="4" t="s">
+      <c r="B442" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C442" s="5">
+      <c r="C442" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443" s="3" t="s">
+      <c r="A443" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B443" s="4" t="s">
+      <c r="B443" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="C443" s="5">
+      <c r="C443" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444" s="6" t="s">
+      <c r="A444" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="B444" s="7" t="s">
+      <c r="B444" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="C444" s="5">
+      <c r="C444" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445" s="3" t="s">
+      <c r="A445" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B445" s="4" t="s">
+      <c r="B445" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="C445" s="5">
+      <c r="C445" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446" s="6" t="s">
+      <c r="A446" s="4" t="s">
         <v>850</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B446" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="C446" s="5">
+      <c r="C446" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447" s="3" t="s">
+      <c r="A447" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B447" s="4" t="s">
+      <c r="B447" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C447" s="5">
+      <c r="C447" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448" s="3" t="s">
+      <c r="A448" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B448" s="4" t="s">
+      <c r="B448" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="C448" s="5">
+      <c r="C448" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="3" t="s">
+      <c r="A449" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B449" s="4" t="s">
+      <c r="B449" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="C449" s="5">
+      <c r="C449" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="6" t="s">
+      <c r="A450" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="B450" s="7" t="s">
+      <c r="B450" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="C450" s="5">
+      <c r="C450" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="6" t="s">
+      <c r="A451" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="B451" s="7" t="s">
+      <c r="B451" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="C451" s="5">
+      <c r="C451" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="8"/>
+      <c r="A452" s="6"/>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="8"/>
+      <c r="A453" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A391 A397:A451">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A452:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
